--- a/Riesgo/DataTarea_Exogenas_Riesgo11.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\CUECOPolMon\Riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0503D8-198B-418D-BFF2-D12445621D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1EE37C-91AF-4516-9350-77D3F55A9F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="3000" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="3915" windowWidth="21540" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uvar" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
     <col min="5" max="5" width="14.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -559,18 +559,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>45747</v>
       </c>
       <c r="B3" s="4">
-        <v>0.91384956126651085</v>
+        <v>0.41384956126651085</v>
       </c>
       <c r="C3" s="4">
-        <v>-0.50513327035578404</v>
+        <v>-0.75513327035578404</v>
       </c>
       <c r="D3" s="5">
-        <v>1.1841264661844511</v>
+        <v>0.68412646618445105</v>
       </c>
       <c r="E3" s="6"/>
       <c r="G3" s="16"/>
@@ -581,19 +581,22 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>45838</v>
       </c>
       <c r="B4" s="4">
-        <v>1.1266701743315761</v>
+        <v>0.6266701743315759</v>
       </c>
       <c r="C4" s="4">
-        <v>-0.42154812714435619</v>
+        <v>-0.67154812714435619</v>
       </c>
       <c r="D4" s="5">
-        <v>1.3930540365912851</v>
+        <v>0.89305403659128491</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="16"/>
@@ -604,19 +607,22 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <v>1.2955613233791039</v>
+        <v>0.7955613233791039</v>
       </c>
       <c r="C5" s="4">
-        <v>-0.38826461122156442</v>
+        <v>-0.63826461122156442</v>
       </c>
       <c r="D5" s="5">
-        <v>1.4468334275879011</v>
+        <v>0.9468334275879009</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="16"/>
@@ -627,19 +633,22 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>46022</v>
       </c>
       <c r="B6" s="4">
-        <v>1.424829384708675</v>
+        <v>0.92482938470867504</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3535964354729636</v>
+        <v>-0.60359643547296371</v>
       </c>
       <c r="D6" s="5">
-        <v>1.4647693433928151</v>
+        <v>0.96476934339281506</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="16"/>
@@ -650,19 +659,22 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>46112</v>
       </c>
       <c r="B7" s="4">
-        <v>1.520894955175071</v>
+        <v>1.020894955175071</v>
       </c>
       <c r="C7" s="4">
-        <v>-0.34081097016459322</v>
+        <v>-0.59081097016459339</v>
       </c>
       <c r="D7" s="5">
-        <v>1.4722428015305791</v>
+        <v>0.97224280153057929</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="16"/>
@@ -673,19 +685,22 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>46203</v>
       </c>
       <c r="B8" s="4">
-        <v>1.590408717430285</v>
+        <v>1.090408717430285</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.33002114131167809</v>
+        <v>-0.58002114131167803</v>
       </c>
       <c r="D8" s="5">
-        <v>1.4756188688010101</v>
+        <v>0.97561886880101012</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="16"/>
@@ -696,19 +711,22 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>46295</v>
       </c>
       <c r="B9" s="4">
-        <v>1.6394703557769941</v>
+        <v>1.1394703557769941</v>
       </c>
       <c r="C9" s="4">
-        <v>-0.3380297275828979</v>
+        <v>-0.58802972758289807</v>
       </c>
       <c r="D9" s="5">
-        <v>1.477104200249201</v>
+        <v>0.97710420024920097</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="16"/>
@@ -719,19 +737,22 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>46387</v>
       </c>
       <c r="B10" s="4">
-        <v>1.673303583980273</v>
+        <v>1.173303583980273</v>
       </c>
       <c r="C10" s="4">
-        <v>-0.35570801121811174</v>
+        <v>-0.60570801121811191</v>
       </c>
       <c r="D10" s="5">
-        <v>1.4777659436680299</v>
+        <v>0.97776594366802971</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="16"/>
@@ -742,6 +763,36 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
